--- a/src/main/java/com/testdata/TestdataEmp.xlsx
+++ b/src/main/java/com/testdata/TestdataEmp.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Addproduct" sheetId="2" r:id="rId2"/>
+    <sheet name="AddCondition" sheetId="3" r:id="rId3"/>
+    <sheet name="EditCondition" sheetId="4" r:id="rId4"/>
+    <sheet name="DeleteCondition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -133,17 +136,50 @@
   <si>
     <t>11A234GRS2</t>
   </si>
+  <si>
+    <t>ConditionName</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>not bad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>EditedConditionname</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>satisfactory</t>
+  </si>
+  <si>
+    <t>quite good</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -180,6 +216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -187,16 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -212,14 +248,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +285,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -241,26 +300,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,23 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +453,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,103 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,11 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,6 +604,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,17 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +665,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,136 +677,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -788,7 +824,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1121,7 +1157,7 @@
   <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -17572,8 +17608,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -17706,4 +17742,173 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/java/com/testdata/TestdataEmp.xlsx
+++ b/src/main/java/com/testdata/TestdataEmp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -68,9 +68,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>InventoryStatus</t>
-  </si>
-  <si>
     <t>InventoryCondition</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>bed room</t>
+    <t>bedroom</t>
   </si>
   <si>
     <t>MS-01</t>
@@ -110,7 +107,7 @@
     <t>SkWoods</t>
   </si>
   <si>
-    <t>teak-wood</t>
+    <t>teak-wood dressing table</t>
   </si>
   <si>
     <t>illfordd</t>
@@ -119,13 +116,10 @@
     <t>brown</t>
   </si>
   <si>
-    <t>To Be Sold</t>
+    <t>AVERAGE</t>
   </si>
   <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+    <t>SHOWROOM</t>
   </si>
   <si>
     <t>SKDT</t>
@@ -138,6 +132,9 @@
   </si>
   <si>
     <t>ConditionName</t>
+  </si>
+  <si>
+    <t>Excellent</t>
   </si>
   <si>
     <t>Wow</t>
@@ -175,11 +172,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -216,16 +213,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,16 +266,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,77 +334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +356,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,7 +366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +402,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +468,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,43 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,148 +662,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,7 +821,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -17606,15 +17603,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" spans="1:20">
+    <row r="1" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -17672,25 +17669,22 @@
       <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="51" spans="1:19">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="38.25" spans="1:20">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>182.9</v>
@@ -17702,39 +17696,36 @@
         <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="5">
+        <v>45219</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="3">
+        <v>68132</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5">
-        <v>45219</v>
-      </c>
-      <c r="N2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="P2" s="3">
-        <v>68132</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="S2" s="1">
         <v>20</v>
       </c>
     </row>
@@ -17760,32 +17751,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -17811,50 +17802,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -17868,7 +17859,7 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
@@ -17879,32 +17870,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
